--- a/Rmarkdown Report/results/results spreadsheet.xlsx
+++ b/Rmarkdown Report/results/results spreadsheet.xlsx
@@ -316,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,7 +362,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,11 +462,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6311170"/>
-        <c:axId val="58474724"/>
+        <c:axId val="19962804"/>
+        <c:axId val="20167712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6311170"/>
+        <c:axId val="19962804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,14 +522,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58474724"/>
+        <c:crossAx val="20167712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58474724"/>
+        <c:axId val="20167712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6311170"/>
+        <c:crossAx val="19962804"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -652,9 +652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>277200</xdr:colOff>
+      <xdr:colOff>276840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -663,7 +663,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1179360" y="1347840"/>
-        <a:ext cx="7225560" cy="3939480"/>
+        <a:ext cx="7225200" cy="3939120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -684,7 +684,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -734,10 +734,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>24</v>
